--- a/data/00_data_forModel_all.xlsx
+++ b/data/00_data_forModel_all.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpytsui\Documents\Surfdrive\Documents\_PhD\_github\bimzec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE9907-4160-4FAE-95D3-D2F006D31A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDB2A0B-36FA-4F4D-A4D5-6D9350462517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data overview" sheetId="1" r:id="rId1"/>
     <sheet name="materialNames_conversion" sheetId="13" r:id="rId2"/>
-    <sheet name="materials_logistics_info" sheetId="2" r:id="rId3"/>
-    <sheet name="buildingTypes_matComposition" sheetId="11" r:id="rId4"/>
-    <sheet name="vehicles_info" sheetId="12" r:id="rId5"/>
+    <sheet name="vehicles_info" sheetId="12" r:id="rId3"/>
+    <sheet name="materials_logistics_info" sheetId="2" r:id="rId4"/>
+    <sheet name="buildingTypes_matComposition" sheetId="11" r:id="rId5"/>
     <sheet name="suppliers" sheetId="6" r:id="rId6"/>
     <sheet name="hubs_macro" sheetId="4" r:id="rId7"/>
     <sheet name="hubs_candidateLocations" sheetId="10" r:id="rId8"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="124">
   <si>
     <t>Data overview</t>
   </si>
@@ -106,15 +106,9 @@
     <t>HAUT</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Switi</t>
   </si>
   <si>
-    <t>Mid</t>
-  </si>
-  <si>
     <t>Patch 22</t>
   </si>
   <si>
@@ -274,12 +268,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>amount_mid-rise</t>
-  </si>
-  <si>
-    <t>amount_high-rise</t>
-  </si>
-  <si>
     <t>amount of materials needed for construction sites based on building type (low, mid, or high-rise), biobased_type (none, semi, full). Amounts separated into structural and non-structural materials</t>
   </si>
   <si>
@@ -328,12 +316,6 @@
     <t>m3_to_t</t>
   </si>
   <si>
-    <t>perc_fill</t>
-  </si>
-  <si>
-    <t>built</t>
-  </si>
-  <si>
     <t>aluminium</t>
   </si>
   <si>
@@ -346,15 +328,9 @@
     <t>enviCat</t>
   </si>
   <si>
-    <t>nonStruc</t>
-  </si>
-  <si>
     <t>pPerSqm</t>
   </si>
   <si>
-    <t>struc</t>
-  </si>
-  <si>
     <t>hub_type</t>
   </si>
   <si>
@@ -376,39 +352,12 @@
     <t>nAxels</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big </t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>allowed in center</t>
-  </si>
-  <si>
     <t>tons</t>
   </si>
   <si>
     <t>structural</t>
   </si>
   <si>
-    <t>diesel_small</t>
-  </si>
-  <si>
-    <t>electric_small</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>supplier_type</t>
   </si>
   <si>
@@ -431,13 +380,55 @@
   </si>
   <si>
     <t>insulation</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>multiplicator_material</t>
+  </si>
+  <si>
+    <t>perc_fill_material</t>
+  </si>
+  <si>
+    <t>perc_fill_operational</t>
+  </si>
+  <si>
+    <t>perc_fill_total</t>
+  </si>
+  <si>
+    <t>emissions_perTonKm</t>
+  </si>
+  <si>
+    <t>vehicle_weight</t>
+  </si>
+  <si>
+    <t>international_close</t>
+  </si>
+  <si>
+    <t>international_far</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,6 +465,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -483,7 +481,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -491,11 +489,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,10 +520,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,7 +857,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -855,14 +867,14 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>121</v>
+      <c r="A4" t="s">
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>122</v>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -878,24 +890,24 @@
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -951,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6FAA38-8228-489C-90A0-408B20BEE48F}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -963,130 +975,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1095,194 +1107,540 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C88D6-EBE3-4BD6-9917-8098B440CAD4}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G2" s="9">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>1500</v>
+      </c>
+      <c r="E5">
+        <v>1800</v>
+      </c>
+      <c r="F5">
+        <v>3.3E-3</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4.125E-5</v>
+      </c>
+      <c r="H5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2.0829999999999999E-5</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3070A317-EA4A-4349-8291-694C61C1EC72}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A16"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>2.7</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2">
+        <v>101</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="E2">
+        <f>1/D2</f>
         <v>0.8</v>
       </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3">
+        <v>101</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">1/D3</f>
         <v>0.8</v>
       </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="1">E3*F3</f>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>2.2000000000000002</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4">
+        <v>101</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="E4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>2.4</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5">
+        <v>101</v>
+      </c>
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>2.4</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6">
+        <v>101</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="E6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>2.7</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7">
+        <v>101</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>2.5</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="E8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>1.6</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9">
+        <v>101</v>
+      </c>
+      <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>2.2999999999999998</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10">
+        <v>101</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="E10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>0.05</v>
@@ -1290,16 +1648,27 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="E11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12">
         <v>0.9</v>
@@ -1307,73 +1676,117 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
         <v>0.76923076923076916</v>
       </c>
-      <c r="E12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="H12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13">
+        <v>101</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="E13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <v>7.8</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14">
+        <v>101</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>0.7</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15">
+        <v>101</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1.3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
         <v>0.76923076923076916</v>
       </c>
-      <c r="E15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>105</v>
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -1422,20 +1835,20 @@
       <c r="A33" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E19">
     <sortCondition ref="A1:A19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D0406-5DCE-4EA0-A6FA-60BD40F7B812}">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S51" sqref="S51"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1445,41 +1858,44 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="6" max="7" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1487,19 +1903,22 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1507,19 +1926,22 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1527,19 +1949,22 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -1547,39 +1972,45 @@
       <c r="F5">
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1587,19 +2018,22 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1607,19 +2041,22 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1627,39 +2064,45 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1667,19 +2110,22 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1687,19 +2133,22 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1707,19 +2156,22 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -1727,19 +2179,22 @@
       <c r="F14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1747,19 +2202,22 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1767,19 +2225,22 @@
       <c r="F16">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E17">
         <v>150</v>
@@ -1787,19 +2248,22 @@
       <c r="F17">
         <v>350</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E18">
         <v>40</v>
@@ -1807,19 +2271,22 @@
       <c r="F18">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E19">
         <v>250</v>
@@ -1827,19 +2294,22 @@
       <c r="F19">
         <v>600</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E20">
         <v>150</v>
@@ -1847,19 +2317,22 @@
       <c r="F20">
         <v>360</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1867,19 +2340,22 @@
       <c r="F21">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -1887,19 +2363,22 @@
       <c r="F22">
         <v>120</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E23">
         <v>250</v>
@@ -1907,19 +2386,22 @@
       <c r="F23">
         <v>600</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -1927,19 +2409,22 @@
       <c r="F24">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E25">
         <v>20</v>
@@ -1947,19 +2432,22 @@
       <c r="F25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E26">
         <v>10</v>
@@ -1967,19 +2455,22 @@
       <c r="F26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1987,19 +2478,22 @@
       <c r="F27">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -2007,19 +2501,22 @@
       <c r="F28">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E29">
         <v>30</v>
@@ -2027,19 +2524,22 @@
       <c r="F29">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
         <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>72</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -2047,19 +2547,22 @@
       <c r="F30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
         <v>70</v>
-      </c>
-      <c r="D31" t="s">
-        <v>72</v>
       </c>
       <c r="E31">
         <v>75</v>
@@ -2067,19 +2570,22 @@
       <c r="F31">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
         <v>70</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -2087,19 +2593,22 @@
       <c r="F32">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
         <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
       </c>
       <c r="E33">
         <v>125</v>
@@ -2107,19 +2616,22 @@
       <c r="F33">
         <v>300</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
         <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
       </c>
       <c r="E34">
         <v>75</v>
@@ -2127,19 +2639,22 @@
       <c r="F34">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -2147,19 +2662,22 @@
       <c r="F35">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
         <v>70</v>
-      </c>
-      <c r="D36" t="s">
-        <v>72</v>
       </c>
       <c r="E36">
         <v>25</v>
@@ -2167,19 +2685,22 @@
       <c r="F36">
         <v>60</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
         <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>72</v>
       </c>
       <c r="E37">
         <v>125</v>
@@ -2187,19 +2708,22 @@
       <c r="F37">
         <v>300</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
         <v>70</v>
-      </c>
-      <c r="D38" t="s">
-        <v>72</v>
       </c>
       <c r="E38">
         <v>15</v>
@@ -2207,19 +2731,22 @@
       <c r="F38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
         <v>70</v>
-      </c>
-      <c r="D39" t="s">
-        <v>72</v>
       </c>
       <c r="E39">
         <v>10</v>
@@ -2227,19 +2754,22 @@
       <c r="F39">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
         <v>70</v>
-      </c>
-      <c r="D40" t="s">
-        <v>72</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2247,19 +2777,22 @@
       <c r="F40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
         <v>70</v>
-      </c>
-      <c r="D41" t="s">
-        <v>72</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -2267,19 +2800,22 @@
       <c r="F41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
         <v>70</v>
-      </c>
-      <c r="D42" t="s">
-        <v>72</v>
       </c>
       <c r="E42">
         <v>50</v>
@@ -2287,19 +2823,22 @@
       <c r="F42">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
         <v>70</v>
-      </c>
-      <c r="D43" t="s">
-        <v>72</v>
       </c>
       <c r="E43">
         <v>15</v>
@@ -2307,19 +2846,22 @@
       <c r="F43">
         <v>37</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
         <v>70</v>
-      </c>
-      <c r="D44" t="s">
-        <v>72</v>
       </c>
       <c r="E44">
         <v>50</v>
@@ -2327,19 +2869,22 @@
       <c r="F44">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2347,19 +2892,22 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2367,19 +2915,22 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2387,19 +2938,22 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E48">
         <v>160</v>
@@ -2407,39 +2961,45 @@
       <c r="F48">
         <v>320</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="B49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" t="s">
-        <v>71</v>
-      </c>
-      <c r="D49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>62</v>
-      </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2447,19 +3007,22 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2467,19 +3030,22 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2487,39 +3053,45 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>55</v>
-      </c>
-      <c r="B53" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>57</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2527,19 +3099,22 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2547,19 +3122,22 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2567,19 +3145,22 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E57">
         <v>40</v>
@@ -2587,39 +3168,45 @@
       <c r="F57">
         <v>80</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>51</v>
       </c>
-      <c r="B58" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>53</v>
-      </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E59">
         <v>8</v>
@@ -2627,19 +3214,22 @@
       <c r="F59">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E60">
         <v>120</v>
@@ -2647,19 +3237,22 @@
       <c r="F60">
         <v>280</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E61">
         <v>32</v>
@@ -2667,19 +3260,22 @@
       <c r="F61">
         <v>72</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E62">
         <v>200</v>
@@ -2687,19 +3283,22 @@
       <c r="F62">
         <v>480</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E63">
         <v>120</v>
@@ -2707,19 +3306,22 @@
       <c r="F63">
         <v>288</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E64">
         <v>16</v>
@@ -2727,19 +3329,22 @@
       <c r="F64">
         <v>40</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -2747,19 +3352,22 @@
       <c r="F65">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E66">
         <v>200</v>
@@ -2767,19 +3375,22 @@
       <c r="F66">
         <v>480</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E67">
         <v>24</v>
@@ -2787,19 +3398,22 @@
       <c r="F67">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
         <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E68">
         <v>16</v>
@@ -2807,19 +3421,22 @@
       <c r="F68">
         <v>40</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E69">
         <v>8</v>
@@ -2827,19 +3444,22 @@
       <c r="F69">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -2847,19 +3467,22 @@
       <c r="F70">
         <v>9.6000000000000014</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70">
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E71">
         <v>80</v>
@@ -2867,19 +3490,22 @@
       <c r="F71">
         <v>200</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E72">
         <v>24</v>
@@ -2887,19 +3513,22 @@
       <c r="F72">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E73">
         <v>5</v>
@@ -2908,40 +3537,48 @@
         <f>E73*2</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73">
+        <f>F73*2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <f t="shared" ref="F74:F85" si="0">E74*2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F74:G85" si="0">E74*2</f>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2950,19 +3587,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2971,19 +3612,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2992,19 +3637,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D78" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E78">
         <v>10</v>
@@ -3013,19 +3662,23 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D79" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E79">
         <v>25</v>
@@ -3034,19 +3687,23 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3055,19 +3712,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E81">
         <v>15</v>
@@ -3076,19 +3737,23 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -3097,19 +3762,23 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3118,19 +3787,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -3139,19 +3812,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E85">
         <v>50</v>
@@ -3160,19 +3837,23 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D86" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E86">
         <v>80</v>
@@ -3180,19 +3861,22 @@
       <c r="F86">
         <v>160</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D87" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E87">
         <v>50</v>
@@ -3200,19 +3884,22 @@
       <c r="F87">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B88" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3220,19 +3907,22 @@
       <c r="F88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B89" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3240,19 +3930,22 @@
       <c r="F89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3260,19 +3953,22 @@
       <c r="F90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B91" t="s">
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E91">
         <v>160</v>
@@ -3280,39 +3976,45 @@
       <c r="F91">
         <v>320</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" t="s">
+        <v>99</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>60</v>
       </c>
-      <c r="B92" t="s">
-        <v>115</v>
-      </c>
-      <c r="C92" t="s">
-        <v>73</v>
-      </c>
-      <c r="D92" t="s">
-        <v>107</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>62</v>
-      </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3320,19 +4022,22 @@
       <c r="F93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3340,19 +4045,22 @@
       <c r="F94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3360,39 +4068,45 @@
       <c r="F95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" t="s">
+        <v>99</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>55</v>
-      </c>
-      <c r="B96" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" t="s">
-        <v>73</v>
-      </c>
-      <c r="D96" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>57</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3400,19 +4114,22 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D98" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3420,19 +4137,22 @@
       <c r="F98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3440,19 +4160,22 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E100">
         <v>40</v>
@@ -3460,39 +4183,45 @@
       <c r="F100">
         <v>80</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>49</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" t="s">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>51</v>
       </c>
-      <c r="B101" t="s">
-        <v>115</v>
-      </c>
-      <c r="C101" t="s">
-        <v>73</v>
-      </c>
-      <c r="D101" t="s">
-        <v>107</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>53</v>
-      </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -3500,19 +4229,22 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -3520,19 +4252,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D104" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3540,19 +4275,22 @@
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
         <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3560,39 +4298,45 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" t="s">
+        <v>71</v>
+      </c>
+      <c r="D106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>60</v>
       </c>
-      <c r="B106" t="s">
-        <v>115</v>
-      </c>
-      <c r="C106" t="s">
-        <v>73</v>
-      </c>
-      <c r="D106" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>62</v>
-      </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -3600,19 +4344,22 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D108" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -3620,19 +4367,22 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D109" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -3640,39 +4390,45 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110" t="s">
+        <v>71</v>
+      </c>
+      <c r="D110" t="s">
+        <v>67</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>55</v>
-      </c>
-      <c r="B110" t="s">
-        <v>115</v>
-      </c>
-      <c r="C110" t="s">
-        <v>73</v>
-      </c>
-      <c r="D110" t="s">
-        <v>69</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>57</v>
       </c>
       <c r="B111" t="s">
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D111" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3680,19 +4436,22 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D112" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3700,19 +4459,22 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C113" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D113" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3720,19 +4482,22 @@
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D114" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3740,19 +4505,22 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C115" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D115" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E115">
         <v>750</v>
@@ -3760,19 +4528,22 @@
       <c r="F115">
         <v>1500</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C116" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -3781,40 +4552,48 @@
         <f>E116*2</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116">
+        <f>F116*2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D117" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <f t="shared" ref="F117:F128" si="1">E117*2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F117:G128" si="1">E117*2</f>
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D118" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3823,19 +4602,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B119" t="s">
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D119" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3844,19 +4627,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D120" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3865,19 +4652,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C121" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D121" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E121">
         <v>10</v>
@@ -3886,19 +4677,23 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B122" t="s">
         <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D122" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E122">
         <v>25</v>
@@ -3907,19 +4702,23 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C123" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D123" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -3928,19 +4727,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B124" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D124" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E124">
         <v>15</v>
@@ -3949,19 +4752,23 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B125" t="s">
         <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D125" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E125">
         <v>10</v>
@@ -3970,19 +4777,23 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B126" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D126" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3991,19 +4802,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D127" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E127">
         <v>3</v>
@@ -4012,19 +4827,23 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B128" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C128" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D128" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E128">
         <v>50</v>
@@ -4033,19 +4852,23 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D129" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E129">
         <v>80</v>
@@ -4053,19 +4876,22 @@
       <c r="F129">
         <v>160</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B130" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D130" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E130">
         <v>50</v>
@@ -4073,19 +4899,22 @@
       <c r="F130">
         <v>100</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B131" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D131" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -4093,19 +4922,22 @@
       <c r="F131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B132" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C132" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D132" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -4113,19 +4945,22 @@
       <c r="F132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B133" t="s">
         <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D133" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -4133,19 +4968,22 @@
       <c r="F133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D134" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -4153,39 +4991,45 @@
       <c r="F134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" t="s">
+        <v>101</v>
+      </c>
+      <c r="C135" t="s">
+        <v>98</v>
+      </c>
+      <c r="D135" t="s">
+        <v>99</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>60</v>
       </c>
-      <c r="B135" t="s">
-        <v>115</v>
-      </c>
-      <c r="C135" t="s">
-        <v>106</v>
-      </c>
-      <c r="D135" t="s">
-        <v>107</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>62</v>
-      </c>
       <c r="B136" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C136" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D136" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4193,19 +5037,22 @@
       <c r="F136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B137" t="s">
         <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D137" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4213,19 +5060,22 @@
       <c r="F137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B138" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C138" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D138" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -4233,39 +5083,45 @@
       <c r="F138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" t="s">
+        <v>101</v>
+      </c>
+      <c r="C139" t="s">
+        <v>98</v>
+      </c>
+      <c r="D139" t="s">
+        <v>99</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>55</v>
-      </c>
-      <c r="B139" t="s">
-        <v>115</v>
-      </c>
-      <c r="C139" t="s">
-        <v>106</v>
-      </c>
-      <c r="D139" t="s">
-        <v>107</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>57</v>
       </c>
       <c r="B140" t="s">
         <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D140" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4273,19 +5129,22 @@
       <c r="F140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C141" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D141" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -4293,19 +5152,22 @@
       <c r="F141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C142" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D142" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -4313,19 +5175,22 @@
       <c r="F142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B143" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C143" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D143" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -4333,19 +5198,22 @@
       <c r="F143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B144" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C144" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D144" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E144">
         <v>500</v>
@@ -4353,19 +5221,22 @@
       <c r="F144">
         <v>1000</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B145" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C145" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D145" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -4373,19 +5244,22 @@
       <c r="F145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B146" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C146" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D146" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -4393,19 +5267,22 @@
       <c r="F146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B147" t="s">
         <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D147" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -4413,19 +5290,22 @@
       <c r="F147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B148" t="s">
         <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D148" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -4433,39 +5313,45 @@
       <c r="F148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>58</v>
+      </c>
+      <c r="B149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" t="s">
+        <v>67</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>60</v>
       </c>
-      <c r="B149" t="s">
-        <v>115</v>
-      </c>
-      <c r="C149" t="s">
-        <v>106</v>
-      </c>
-      <c r="D149" t="s">
-        <v>69</v>
-      </c>
-      <c r="E149">
-        <v>0</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>62</v>
-      </c>
       <c r="B150" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C150" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D150" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -4473,19 +5359,22 @@
       <c r="F150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B151" t="s">
         <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D151" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -4493,19 +5382,22 @@
       <c r="F151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B152" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C152" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D152" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -4513,39 +5405,45 @@
       <c r="F152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>53</v>
+      </c>
+      <c r="B153" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" t="s">
+        <v>98</v>
+      </c>
+      <c r="D153" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>55</v>
-      </c>
-      <c r="B153" t="s">
-        <v>115</v>
-      </c>
-      <c r="C153" t="s">
-        <v>106</v>
-      </c>
-      <c r="D153" t="s">
-        <v>69</v>
-      </c>
-      <c r="E153">
-        <v>0</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>57</v>
       </c>
       <c r="B154" t="s">
         <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D154" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -4553,19 +5451,22 @@
       <c r="F154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B155" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C155" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D155" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -4573,19 +5474,22 @@
       <c r="F155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B156" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C156" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -4593,19 +5497,22 @@
       <c r="F156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B157" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C157" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D157" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -4613,19 +5520,22 @@
       <c r="F157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C158" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D158" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E158">
         <v>750</v>
@@ -4633,19 +5543,22 @@
       <c r="F158">
         <v>1500</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B159" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C159" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -4654,40 +5567,48 @@
         <f>E159*2</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159">
+        <f>F159*2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B160" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C160" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D160" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="F160">
-        <f t="shared" ref="F160:F171" si="2">E160*2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F160:G171" si="2">E160*2</f>
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B161" t="s">
         <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D161" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -4696,19 +5617,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B162" t="s">
         <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D162" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -4717,19 +5642,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B163" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C163" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D163" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -4738,19 +5667,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B164" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C164" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D164" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E164">
         <v>10</v>
@@ -4759,19 +5692,23 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B165" t="s">
         <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D165" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E165">
         <v>25</v>
@@ -4780,19 +5717,23 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B166" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C166" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D166" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -4801,19 +5742,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B167" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C167" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D167" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E167">
         <v>15</v>
@@ -4822,19 +5767,23 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B168" t="s">
         <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D168" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E168">
         <v>10</v>
@@ -4843,19 +5792,23 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B169" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C169" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D169" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -4864,19 +5817,23 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B170" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C170" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D170" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E170">
         <v>3</v>
@@ -4885,19 +5842,23 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B171" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C171" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D171" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E171">
         <v>50</v>
@@ -4906,19 +5867,23 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B172" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C172" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D172" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E172">
         <v>80</v>
@@ -4926,19 +5891,22 @@
       <c r="F172">
         <v>160</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B173" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C173" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D173" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E173">
         <v>50</v>
@@ -4946,212 +5914,9 @@
       <c r="F173">
         <v>100</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C88D6-EBE3-4BD6-9917-8098B440CAD4}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
+      <c r="G173">
         <v>100</v>
       </c>
-      <c r="E2">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>110</v>
-      </c>
-      <c r="H3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>70</v>
-      </c>
-      <c r="E5">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6">
-        <v>1500</v>
-      </c>
-      <c r="E6">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7">
-        <v>120</v>
-      </c>
-      <c r="D7">
-        <v>140</v>
-      </c>
-      <c r="E7">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5160,35 +5925,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99344D45-9F17-4E38-8352-36C00B2489E3}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B2" s="6">
         <v>70</v>
@@ -5202,16 +5967,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B3" s="6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>51.085581264538703</v>
+        <v>50.819071416818502</v>
       </c>
       <c r="D3">
-        <v>10.3241089004679</v>
+        <v>4.3732325392690301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>49.921740475005201</v>
+      </c>
+      <c r="D4">
+        <v>20.217737593115</v>
       </c>
     </row>
   </sheetData>
@@ -5240,21 +6019,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>52.416804409999997</v>
@@ -5265,10 +6044,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>52.311401289999999</v>
@@ -5279,10 +6058,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>52.321063796021278</v>
@@ -5293,10 +6072,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>52.315849834042133</v>
@@ -5307,10 +6086,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>52.314510461205671</v>
@@ -5329,7 +6108,7 @@
   <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5342,16 +6121,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -7307,10 +8086,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587A319-C95B-4506-8508-A6F63244A99F}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7318,34 +8097,23 @@
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -7356,18 +8124,12 @@
         <v>4.9189818818281497</v>
       </c>
       <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
       </c>
       <c r="B3">
         <v>52.315130565676597</v>
@@ -7376,18 +8138,12 @@
         <v>4.9660973687903001</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>52.395513133854202</v>
@@ -7396,18 +8152,12 @@
         <v>4.9052426687943402</v>
       </c>
       <c r="D4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
       </c>
       <c r="B5">
         <v>52.395161990196399</v>
@@ -7416,18 +8166,12 @@
         <v>4.9058031440241097</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>52.374791063246697</v>
@@ -7436,18 +8180,12 @@
         <v>4.96107012099091</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>52.376225588174698</v>
@@ -7456,18 +8194,12 @@
         <v>4.9598511332722497</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>52.338214162520899</v>
@@ -7476,18 +8208,12 @@
         <v>4.8735572330821197</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>52.337307879607501</v>
@@ -7496,18 +8222,12 @@
         <v>4.8776333049686897</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>52.386300870281097</v>
@@ -7516,18 +8236,12 @@
         <v>4.83746186377833</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>52.361165511460399</v>
@@ -7536,18 +8250,12 @@
         <v>4.8284731576089204</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>52.323369247714098</v>
@@ -7556,18 +8264,12 @@
         <v>4.9561932422485597</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>52.306552443168698</v>
@@ -7576,18 +8278,12 @@
         <v>4.9507219921090497</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>52.386784160694802</v>
@@ -7596,18 +8292,12 @@
         <v>4.8354002735954102</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>52.388728277042297</v>
@@ -7616,18 +8306,12 @@
         <v>4.8386078046929102</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>52.388328307206002</v>
@@ -7636,18 +8320,12 @@
         <v>4.8330056392022103</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>52.385864837108201</v>
@@ -7656,18 +8334,12 @@
         <v>4.8322403545463004</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>52.308600032392903</v>
@@ -7676,18 +8348,12 @@
         <v>4.9400837860288096</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>52.3373199485181</v>
@@ -7696,18 +8362,12 @@
         <v>4.8662243989687601</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>52.337644947634097</v>
@@ -7716,18 +8376,12 @@
         <v>4.8930529680350396</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>52.393547515711603</v>
@@ -7736,13 +8390,7 @@
         <v>4.9019769261480697</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/00_data_forModel_all.xlsx
+++ b/data/00_data_forModel_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpytsui\Documents\Surfdrive\Documents\_PhD\_github\bimzec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDB2A0B-36FA-4F4D-A4D5-6D9350462517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C059A-F27D-4D39-854C-4465F798C247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data overview" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -522,7 +522,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,7 +964,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96C88D6-EBE3-4BD6-9917-8098B440CAD4}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,9 +1346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3070A317-EA4A-4349-8291-694C61C1EC72}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/00_data_forModel_all.xlsx
+++ b/data/00_data_forModel_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tpytsui\Documents\Surfdrive\Documents\_PhD\_github\bimzec\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05C059A-F27D-4D39-854C-4465F798C247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FCB9AB-5446-4942-9D5B-9237B725142F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="821" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data overview" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="129">
   <si>
     <t>Data overview</t>
   </si>
@@ -419,6 +419,21 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>hub_usage</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>start_year</t>
+  </si>
+  <si>
+    <t>end_year</t>
   </si>
 </sst>
 </file>
@@ -1344,11 +1359,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3070A317-EA4A-4349-8291-694C61C1EC72}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,10 +1372,11 @@
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="5" max="7" width="20.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1385,8 +1401,11 @@
       <c r="H1" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1413,8 +1432,11 @@
       <c r="H2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -1441,8 +1463,11 @@
       <c r="H3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1469,8 +1494,11 @@
       <c r="H4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1497,8 +1525,11 @@
       <c r="H5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1525,8 +1556,11 @@
       <c r="H6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1553,8 +1587,11 @@
       <c r="H7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1581,8 +1618,11 @@
       <c r="H8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1609,8 +1649,11 @@
       <c r="H9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1637,8 +1680,11 @@
       <c r="H10" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1665,8 +1711,11 @@
       <c r="H11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -1693,8 +1742,11 @@
       <c r="H12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1721,8 +1773,11 @@
       <c r="H13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1749,8 +1804,11 @@
       <c r="H14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1777,8 +1835,11 @@
       <c r="H15" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1787,6 +1848,9 @@
       </c>
       <c r="H16" t="s">
         <v>120</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -1846,9 +1910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D0406-5DCE-4EA0-A6FA-60BD40F7B812}">
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8086,10 +8150,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587A319-C95B-4506-8508-A6F63244A99F}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8097,9 +8161,11 @@
     <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -8112,8 +8178,14 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -8127,7 +8199,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -8141,7 +8213,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8155,7 +8227,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -8169,7 +8241,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -8183,7 +8255,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -8197,7 +8269,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -8211,7 +8283,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -8225,7 +8297,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -8239,7 +8311,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -8253,7 +8325,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -8267,7 +8339,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -8281,7 +8353,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -8295,7 +8367,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -8309,7 +8381,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
